--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF287F6-8B8B-4BBD-B191-0CEA9788DEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A07A4-C702-4AA5-A77A-8364DDD1585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{E1496559-7D5D-449C-88B9-E3FC289F84B4}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F4F0D8B6-C26D-4C55-9372-2F4646E74CC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E7FD3E-5A91-4EAA-9ECD-C8A28AA8DBAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187A226-8095-4122-AA40-2B9C72A2B0AD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -410,7 +410,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.47950759473884202</v>
+        <v>0.11605578028027147</v>
       </c>
     </row>
   </sheetData>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result1_csv/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/I/AngVel/result1_csv/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teachinglab\Desktop\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\I\AngVel\result1_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76A07A4-C702-4AA5-A77A-8364DDD1585B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA919E15-F51D-4DE8-96F5-C480670A7A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{F4F0D8B6-C26D-4C55-9372-2F4646E74CC2}"/>
+    <workbookView xWindow="7095" yWindow="1770" windowWidth="21600" windowHeight="11295" xr2:uid="{69253F6F-06BD-4331-A68F-4A155403A499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3187A226-8095-4122-AA40-2B9C72A2B0AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5173CBA7-DEB6-4FF0-ABC2-168AB2836DE9}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
